--- a/ig/ch-term/ValueSet-DocumentEntry.typeCode.xlsx
+++ b/ig/ch-term/ValueSet-DocumentEntry.typeCode.xlsx
@@ -7,14 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOWMED CT" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from SNOWMED CT 2" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="94">
   <si>
     <t>Property</t>
   </si>
@@ -31,13 +31,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>OID:2.16.756.5.30.1.127.3.10.1.27 (use: official)</t>
+    <t>OID:2.16.756.5.30.1.127.3.10.1.27 (use: official, )</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -67,7 +67,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T11:36:46+00:00</t>
+    <t>2024-12-17T13:29:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -82,7 +82,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -122,6 +122,12 @@
     <t>Imaging order (record artifact)</t>
   </si>
   <si>
+    <t>82291000195104</t>
+  </si>
+  <si>
+    <t>Medication dispense document (record artifact)</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -279,6 +285,18 @@
   </si>
   <si>
     <t>Medication summary document (record artifact)</t>
+  </si>
+  <si>
+    <t>736378000</t>
+  </si>
+  <si>
+    <t>Medication management plan (record artifact)</t>
+  </si>
+  <si>
+    <t>761931002</t>
+  </si>
+  <si>
+    <t>Medication treatment plan report (record artifact)</t>
   </si>
 </sst>
 </file>
@@ -563,7 +581,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -594,15 +612,23 @@
         <v>35</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s" s="2">
         <v>37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -612,7 +638,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -632,218 +658,234 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>35</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="B28" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
         <v>37</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-term/ValueSet-DocumentEntry.typeCode.xlsx
+++ b/ig/ch-term/ValueSet-DocumentEntry.typeCode.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -67,7 +67,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T13:29:11+00:00</t>
+    <t>2025-05-21T19:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -82,7 +82,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -137,166 +137,166 @@
     <t>http://snomed.info/sct</t>
   </si>
   <si>
+    <t>371529009</t>
+  </si>
+  <si>
+    <t>History and physical report (record artifact)</t>
+  </si>
+  <si>
+    <t>419891008</t>
+  </si>
+  <si>
+    <t>Record artifact (record artifact)</t>
+  </si>
+  <si>
+    <t>721965002</t>
+  </si>
+  <si>
+    <t>Laboratory order (record artifact)</t>
+  </si>
+  <si>
+    <t>721966001</t>
+  </si>
+  <si>
+    <t>Pathology order (record artifact)</t>
+  </si>
+  <si>
+    <t>4201000179104</t>
+  </si>
+  <si>
+    <t>Imaging report (record artifact)</t>
+  </si>
+  <si>
+    <t>737427001</t>
+  </si>
+  <si>
+    <t>Clinical management plan (record artifact)</t>
+  </si>
+  <si>
+    <t>765492005</t>
+  </si>
+  <si>
+    <t>Non-drug prescription record (record artifact)</t>
+  </si>
+  <si>
+    <t>773130005</t>
+  </si>
+  <si>
+    <t>Nursing care plan (record artifact)</t>
+  </si>
+  <si>
+    <t>736055001</t>
+  </si>
+  <si>
+    <t>Rehabilitation care plan (record artifact)</t>
+  </si>
+  <si>
+    <t>761938008</t>
+  </si>
+  <si>
+    <t>Medicinal prescription record (record artifact)</t>
+  </si>
+  <si>
+    <t>722446000</t>
+  </si>
+  <si>
+    <t>Allergy record (record artifact)</t>
+  </si>
+  <si>
+    <t>772786005</t>
+  </si>
+  <si>
+    <t>Medical certificate (record artifact)</t>
+  </si>
+  <si>
+    <t>373942005</t>
+  </si>
+  <si>
+    <t>Discharge summary (record artifact)</t>
+  </si>
+  <si>
+    <t>371535009</t>
+  </si>
+  <si>
+    <t>Transfer summary report (record artifact)</t>
+  </si>
+  <si>
+    <t>445300006</t>
+  </si>
+  <si>
+    <t>Emergency department record (record artifact)</t>
+  </si>
+  <si>
+    <t>445418005</t>
+  </si>
+  <si>
+    <t>Professional allied to medicine clinical report (record artifact)</t>
+  </si>
+  <si>
+    <t>371530004</t>
+  </si>
+  <si>
+    <t>Clinical consultation report (record artifact)</t>
+  </si>
+  <si>
+    <t>4241000179101</t>
+  </si>
+  <si>
+    <t>Laboratory report (record artifact)</t>
+  </si>
+  <si>
+    <t>371526002</t>
+  </si>
+  <si>
+    <t>Operative report (record artifact)</t>
+  </si>
+  <si>
+    <t>371532007</t>
+  </si>
+  <si>
+    <t>Progress report (record artifact)</t>
+  </si>
+  <si>
+    <t>900000000000471006</t>
+  </si>
+  <si>
+    <t>Image reference (foundation metadata concept)</t>
+  </si>
+  <si>
+    <t>41000179103</t>
+  </si>
+  <si>
+    <t>Immunization record (record artifact)</t>
+  </si>
+  <si>
+    <t>371528001</t>
+  </si>
+  <si>
+    <t>Pathology report (record artifact)</t>
+  </si>
+  <si>
+    <t>721912009</t>
+  </si>
+  <si>
+    <t>Medication summary document (record artifact)</t>
+  </si>
+  <si>
+    <t>736378000</t>
+  </si>
+  <si>
+    <t>Medication management plan (record artifact)</t>
+  </si>
+  <si>
+    <t>761931002</t>
+  </si>
+  <si>
+    <t>Medication treatment plan report (record artifact)</t>
+  </si>
+  <si>
     <t>787148009</t>
   </si>
   <si>
     <t>Digital representation of specimen (record artifact)</t>
-  </si>
-  <si>
-    <t>371529009</t>
-  </si>
-  <si>
-    <t>History and physical report (record artifact)</t>
-  </si>
-  <si>
-    <t>419891008</t>
-  </si>
-  <si>
-    <t>Record artifact (record artifact)</t>
-  </si>
-  <si>
-    <t>721965002</t>
-  </si>
-  <si>
-    <t>Laboratory order (record artifact)</t>
-  </si>
-  <si>
-    <t>721966001</t>
-  </si>
-  <si>
-    <t>Pathology order (record artifact)</t>
-  </si>
-  <si>
-    <t>4201000179104</t>
-  </si>
-  <si>
-    <t>Imaging report (record artifact)</t>
-  </si>
-  <si>
-    <t>737427001</t>
-  </si>
-  <si>
-    <t>Clinical management plan (record artifact)</t>
-  </si>
-  <si>
-    <t>765492005</t>
-  </si>
-  <si>
-    <t>Non-drug prescription record (record artifact)</t>
-  </si>
-  <si>
-    <t>773130005</t>
-  </si>
-  <si>
-    <t>Nursing care plan (record artifact)</t>
-  </si>
-  <si>
-    <t>736055001</t>
-  </si>
-  <si>
-    <t>Rehabilitation care plan (record artifact)</t>
-  </si>
-  <si>
-    <t>761938008</t>
-  </si>
-  <si>
-    <t>Medicinal prescription record (record artifact)</t>
-  </si>
-  <si>
-    <t>722446000</t>
-  </si>
-  <si>
-    <t>Allergy record (record artifact)</t>
-  </si>
-  <si>
-    <t>772786005</t>
-  </si>
-  <si>
-    <t>Medical certificate (record artifact)</t>
-  </si>
-  <si>
-    <t>373942005</t>
-  </si>
-  <si>
-    <t>Discharge summary (record artifact)</t>
-  </si>
-  <si>
-    <t>371535009</t>
-  </si>
-  <si>
-    <t>Transfer summary report (record artifact)</t>
-  </si>
-  <si>
-    <t>445300006</t>
-  </si>
-  <si>
-    <t>Emergency department record (record artifact)</t>
-  </si>
-  <si>
-    <t>445418005</t>
-  </si>
-  <si>
-    <t>Professional allied to medicine clinical report (record artifact)</t>
-  </si>
-  <si>
-    <t>371530004</t>
-  </si>
-  <si>
-    <t>Clinical consultation report (record artifact)</t>
-  </si>
-  <si>
-    <t>4241000179101</t>
-  </si>
-  <si>
-    <t>Laboratory report (record artifact)</t>
-  </si>
-  <si>
-    <t>371526002</t>
-  </si>
-  <si>
-    <t>Operative report (record artifact)</t>
-  </si>
-  <si>
-    <t>371532007</t>
-  </si>
-  <si>
-    <t>Progress report (record artifact)</t>
-  </si>
-  <si>
-    <t>900000000000471006</t>
-  </si>
-  <si>
-    <t>Image reference (foundation metadata concept)</t>
-  </si>
-  <si>
-    <t>41000179103</t>
-  </si>
-  <si>
-    <t>Immunization record (record artifact)</t>
-  </si>
-  <si>
-    <t>371528001</t>
-  </si>
-  <si>
-    <t>Pathology report (record artifact)</t>
-  </si>
-  <si>
-    <t>721912009</t>
-  </si>
-  <si>
-    <t>Medication summary document (record artifact)</t>
-  </si>
-  <si>
-    <t>736378000</t>
-  </si>
-  <si>
-    <t>Medication management plan (record artifact)</t>
-  </si>
-  <si>
-    <t>761931002</t>
-  </si>
-  <si>
-    <t>Medication treatment plan report (record artifact)</t>
   </si>
 </sst>
 </file>

--- a/ig/ch-term/ValueSet-DocumentEntry.typeCode.xlsx
+++ b/ig/ch-term/ValueSet-DocumentEntry.typeCode.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.2.0</t>
+    <t>3.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -67,7 +67,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T19:27:50+00:00</t>
+    <t>2025-12-15T10:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
